--- a/Angle.xlsx
+++ b/Angle.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="19200" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>whatever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//右半身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//左半身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,21 +466,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -486,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -499,8 +507,14 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>11500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -513,8 +527,17 @@
       <c r="D3" s="6">
         <v>8600</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>11500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -527,8 +550,17 @@
       <c r="D4" s="6">
         <v>9500</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>10500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -536,7 +568,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -549,8 +581,17 @@
       <c r="D6" s="6">
         <v>4700</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>11000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6700</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -558,7 +599,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -571,8 +612,17 @@
       <c r="D8" s="6">
         <v>7300</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>8300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -585,8 +635,17 @@
       <c r="D9" s="6">
         <v>7500</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>11000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4100</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -599,8 +658,17 @@
       <c r="D10" s="6">
         <v>9000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -613,8 +681,17 @@
       <c r="D11" s="6">
         <v>8300</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>10100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -626,6 +703,23 @@
       </c>
       <c r="D12" s="6">
         <v>7500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10800</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6800</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,7 +749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
